--- a/graph1.xlsx
+++ b/graph1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miniprograms\WhereHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7085B-3290-4D2A-97C5-9CC98DBD74EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E5986-77D8-4F2D-ABDB-A2C54A3256E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2360" windowWidth="19200" windowHeight="10150" xr2:uid="{E5281E3E-142A-4AF6-B930-0F18FC932208}"/>
+    <workbookView xWindow="6760" yWindow="3100" windowWidth="19200" windowHeight="10150" xr2:uid="{E5281E3E-142A-4AF6-B930-0F18FC932208}"/>
   </bookViews>
   <sheets>
     <sheet name="graph1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
-    <t>graph_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>from_node</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1053,24 +1053,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F39B2DB-96EB-409F-91C5-9B086D6ACAE0}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -1103,13 +1103,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -1173,13 +1173,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>40</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -1271,13 +1271,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -1285,13 +1285,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>30</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
       </c>
       <c r="D20">
         <v>30</v>
@@ -1341,13 +1341,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
       </c>
       <c r="D21">
         <v>30</v>
@@ -1355,13 +1355,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1369,13 +1369,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1383,13 +1383,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1411,13 +1411,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1481,13 +1481,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1495,13 +1495,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1551,13 +1551,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1565,13 +1565,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1579,13 +1579,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1594,5 +1594,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>